--- a/de17.xlsx
+++ b/de17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chtie\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\chtien18.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -259,9 +259,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,6 +272,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,16 +299,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>351567</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142393</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>894492</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>56668</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -325,7 +325,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3419475" y="2695575"/>
+          <a:off x="1123950" y="5467350"/>
           <a:ext cx="6866667" cy="3857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,16 +885,16 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -910,7 +910,7 @@
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -938,7 +938,7 @@
       <c r="C16" s="5">
         <v>7</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -966,7 +966,7 @@
       <c r="C17" s="5">
         <v>6</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -994,7 +994,7 @@
       <c r="C18" s="5">
         <v>14</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1003,7 +1003,7 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1012,8 +1012,8 @@
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="1"/>
@@ -1023,7 +1023,7 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1033,10 +1033,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="1"/>
@@ -1045,11 +1045,11 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1065,7 +1065,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1081,7 +1081,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
